--- a/life_table4.xlsx
+++ b/life_table4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4ECA63-17DD-4824-AB90-FDC631595D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="life_table4" sheetId="1" r:id="rId1"/>
@@ -96,7 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,27 +490,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -588,7 +589,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -600,7 +601,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -647,6 +648,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -682,6 +700,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,15 +872,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,62 +888,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="C3">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>

--- a/life_table4.xlsx
+++ b/life_table4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4ECA63-17DD-4824-AB90-FDC631595D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD31BD2F-8CC0-4BA6-A15C-0B4901F4C9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="16870" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="life_table4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,9 +573,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -613,7 +613,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -719,7 +719,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,18 +861,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="C3">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>3.9</v>
@@ -926,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0.8</v>

--- a/life_table4.xlsx
+++ b/life_table4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD31BD2F-8CC0-4BA6-A15C-0B4901F4C9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="16870" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="16875" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="life_table4" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,16 +867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -899,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -910,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -921,7 +918,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -932,7 +929,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -943,7 +940,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
